--- a/TestData/Employee_Information.xlsx
+++ b/TestData/Employee_Information.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5F6BFE-584A-4CD8-A470-F2ED34B5242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96288EBF-A877-4C51-8F36-FD8213229D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2448" windowWidth="17352" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
+    <sheet name="EmployeeAllFields" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidEmployeeFileds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>${Employee_Name}</t>
   </si>
@@ -64,6 +66,18 @@
   </si>
   <si>
     <t>Qwerty Qwerty LName</t>
+  </si>
+  <si>
+    <t>${InvalidEmployee_Name}</t>
+  </si>
+  <si>
+    <t>${InvalidEmployee_Id}</t>
+  </si>
+  <si>
+    <t>aaabb</t>
+  </si>
+  <si>
+    <t>sree</t>
   </si>
 </sst>
 </file>
@@ -73,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +95,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,13 +124,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,27 +478,134 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F809AB31-104A-4F92-8EEF-AC1BD1916A48}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8C38AF-ADB6-4AC6-9E2B-601EE803C7E8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>